--- a/data/trans_orig/P14A35_2012-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14A35_2012-Provincia-trans_orig.xlsx
@@ -909,12 +909,12 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>59,24%</t>
+          <t>59,22%</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>87,49%</t>
+          <t>87,53%</t>
         </is>
       </c>
       <c r="M7" s="2" t="n">
@@ -930,12 +930,12 @@
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>59,24%</t>
+          <t>59,22%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>87,49%</t>
+          <t>87,53%</t>
         </is>
       </c>
     </row>
@@ -978,12 +978,12 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>12,51%</t>
+          <t>12,47%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>40,76%</t>
+          <t>40,78%</t>
         </is>
       </c>
       <c r="M8" s="2" t="n">
@@ -999,12 +999,12 @@
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>12,51%</t>
+          <t>12,47%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>40,76%</t>
+          <t>40,78%</t>
         </is>
       </c>
     </row>
@@ -1120,12 +1120,12 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>19,06%</t>
+          <t>19,13%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>79,55%</t>
+          <t>80,07%</t>
         </is>
       </c>
       <c r="M10" s="2" t="n">
@@ -1141,12 +1141,12 @@
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>19,06%</t>
+          <t>19,13%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>79,55%</t>
+          <t>80,07%</t>
         </is>
       </c>
     </row>
@@ -1189,12 +1189,12 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>20,45%</t>
+          <t>19,93%</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>80,94%</t>
+          <t>80,87%</t>
         </is>
       </c>
       <c r="M11" s="2" t="n">
@@ -1210,12 +1210,12 @@
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>20,45%</t>
+          <t>19,93%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>80,94%</t>
+          <t>80,87%</t>
         </is>
       </c>
     </row>
@@ -1331,12 +1331,12 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>48,45%</t>
+          <t>48,8%</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>90,38%</t>
+          <t>90,3%</t>
         </is>
       </c>
       <c r="M13" s="2" t="n">
@@ -1352,12 +1352,12 @@
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>48,45%</t>
+          <t>48,8%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>90,38%</t>
+          <t>90,3%</t>
         </is>
       </c>
     </row>
@@ -1400,12 +1400,12 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>9,62%</t>
+          <t>9,7%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>51,55%</t>
+          <t>51,2%</t>
         </is>
       </c>
       <c r="M14" s="2" t="n">
@@ -1421,12 +1421,12 @@
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>9,62%</t>
+          <t>9,7%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>51,55%</t>
+          <t>51,2%</t>
         </is>
       </c>
     </row>
@@ -1542,12 +1542,12 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>53,31%</t>
+          <t>54,9%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>94,27%</t>
+          <t>94,3%</t>
         </is>
       </c>
       <c r="M16" s="2" t="n">
@@ -1563,12 +1563,12 @@
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>53,31%</t>
+          <t>54,9%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>94,27%</t>
+          <t>94,3%</t>
         </is>
       </c>
     </row>
@@ -1611,12 +1611,12 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>5,73%</t>
+          <t>5,7%</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>46,69%</t>
+          <t>45,1%</t>
         </is>
       </c>
       <c r="M17" s="2" t="n">
@@ -1632,12 +1632,12 @@
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>5,73%</t>
+          <t>5,7%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>46,69%</t>
+          <t>45,1%</t>
         </is>
       </c>
     </row>
@@ -1753,12 +1753,12 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>40,55%</t>
+          <t>41,88%</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>85,05%</t>
+          <t>84,69%</t>
         </is>
       </c>
       <c r="M19" s="2" t="n">
@@ -1774,12 +1774,12 @@
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>40,55%</t>
+          <t>41,88%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>85,05%</t>
+          <t>84,69%</t>
         </is>
       </c>
     </row>
@@ -1822,12 +1822,12 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>14,95%</t>
+          <t>15,31%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>59,45%</t>
+          <t>58,12%</t>
         </is>
       </c>
       <c r="M20" s="2" t="n">
@@ -1843,12 +1843,12 @@
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>14,95%</t>
+          <t>15,31%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>59,45%</t>
+          <t>58,12%</t>
         </is>
       </c>
     </row>
@@ -1964,12 +1964,12 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>31,66%</t>
+          <t>31,58%</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>72,24%</t>
+          <t>72,96%</t>
         </is>
       </c>
       <c r="M22" s="2" t="n">
@@ -1985,12 +1985,12 @@
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>31,66%</t>
+          <t>31,58%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>72,24%</t>
+          <t>72,96%</t>
         </is>
       </c>
     </row>
@@ -2033,12 +2033,12 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>27,76%</t>
+          <t>27,04%</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>68,34%</t>
+          <t>68,42%</t>
         </is>
       </c>
       <c r="M23" s="2" t="n">
@@ -2054,12 +2054,12 @@
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>27,76%</t>
+          <t>27,04%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>68,34%</t>
+          <t>68,42%</t>
         </is>
       </c>
     </row>
@@ -2175,7 +2175,7 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>54,94%</t>
+          <t>56,1%</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
@@ -2196,7 +2196,7 @@
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>54,94%</t>
+          <t>56,1%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -2249,7 +2249,7 @@
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>45,06%</t>
+          <t>43,9%</t>
         </is>
       </c>
       <c r="M26" s="2" t="n">
@@ -2270,7 +2270,7 @@
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>45,06%</t>
+          <t>43,9%</t>
         </is>
       </c>
     </row>
@@ -2386,12 +2386,12 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>59,65%</t>
+          <t>60,33%</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>76,31%</t>
+          <t>76,15%</t>
         </is>
       </c>
       <c r="M28" s="2" t="n">
@@ -2407,12 +2407,12 @@
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>59,65%</t>
+          <t>60,33%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
         <is>
-          <t>76,31%</t>
+          <t>76,15%</t>
         </is>
       </c>
     </row>
@@ -2455,12 +2455,12 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>23,69%</t>
+          <t>23,85%</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>40,35%</t>
+          <t>39,67%</t>
         </is>
       </c>
       <c r="M29" s="2" t="n">
@@ -2476,12 +2476,12 @@
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>23,69%</t>
+          <t>23,85%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
         <is>
-          <t>40,35%</t>
+          <t>39,67%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/P14A35_2012-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14A35_2012-Provincia-trans_orig.xlsx
@@ -909,12 +909,12 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>59,22%</t>
+          <t>56,27%</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>87,53%</t>
+          <t>87,55%</t>
         </is>
       </c>
       <c r="M7" s="2" t="n">
@@ -930,12 +930,12 @@
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>59,22%</t>
+          <t>56,27%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>87,53%</t>
+          <t>87,55%</t>
         </is>
       </c>
     </row>
@@ -978,12 +978,12 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>12,47%</t>
+          <t>12,45%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>40,78%</t>
+          <t>43,73%</t>
         </is>
       </c>
       <c r="M8" s="2" t="n">
@@ -999,12 +999,12 @@
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>12,47%</t>
+          <t>12,45%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>40,78%</t>
+          <t>43,73%</t>
         </is>
       </c>
     </row>
@@ -1120,12 +1120,12 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>19,13%</t>
+          <t>18,81%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>80,07%</t>
+          <t>79,36%</t>
         </is>
       </c>
       <c r="M10" s="2" t="n">
@@ -1141,12 +1141,12 @@
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>19,13%</t>
+          <t>18,81%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>80,07%</t>
+          <t>79,36%</t>
         </is>
       </c>
     </row>
@@ -1189,12 +1189,12 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>19,93%</t>
+          <t>20,64%</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>80,87%</t>
+          <t>81,19%</t>
         </is>
       </c>
       <c r="M11" s="2" t="n">
@@ -1210,12 +1210,12 @@
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>19,93%</t>
+          <t>20,64%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>80,87%</t>
+          <t>81,19%</t>
         </is>
       </c>
     </row>
@@ -1331,12 +1331,12 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>48,8%</t>
+          <t>50,66%</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>90,3%</t>
+          <t>90,66%</t>
         </is>
       </c>
       <c r="M13" s="2" t="n">
@@ -1352,12 +1352,12 @@
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>48,8%</t>
+          <t>50,66%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>90,3%</t>
+          <t>90,66%</t>
         </is>
       </c>
     </row>
@@ -1400,12 +1400,12 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>9,7%</t>
+          <t>9,34%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>51,2%</t>
+          <t>49,34%</t>
         </is>
       </c>
       <c r="M14" s="2" t="n">
@@ -1421,12 +1421,12 @@
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>9,7%</t>
+          <t>9,34%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>51,2%</t>
+          <t>49,34%</t>
         </is>
       </c>
     </row>
@@ -1542,12 +1542,12 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>54,9%</t>
+          <t>54,3%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>94,3%</t>
+          <t>94,5%</t>
         </is>
       </c>
       <c r="M16" s="2" t="n">
@@ -1563,12 +1563,12 @@
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>54,9%</t>
+          <t>54,3%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>94,3%</t>
+          <t>94,5%</t>
         </is>
       </c>
     </row>
@@ -1611,12 +1611,12 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>5,7%</t>
+          <t>5,5%</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>45,1%</t>
+          <t>45,7%</t>
         </is>
       </c>
       <c r="M17" s="2" t="n">
@@ -1632,12 +1632,12 @@
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>5,7%</t>
+          <t>5,5%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>45,1%</t>
+          <t>45,7%</t>
         </is>
       </c>
     </row>
@@ -1753,12 +1753,12 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>41,88%</t>
+          <t>39,56%</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>84,69%</t>
+          <t>85,84%</t>
         </is>
       </c>
       <c r="M19" s="2" t="n">
@@ -1774,12 +1774,12 @@
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>41,88%</t>
+          <t>39,56%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>84,69%</t>
+          <t>85,84%</t>
         </is>
       </c>
     </row>
@@ -1822,12 +1822,12 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>15,31%</t>
+          <t>14,16%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>58,12%</t>
+          <t>60,44%</t>
         </is>
       </c>
       <c r="M20" s="2" t="n">
@@ -1843,12 +1843,12 @@
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>15,31%</t>
+          <t>14,16%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>58,12%</t>
+          <t>60,44%</t>
         </is>
       </c>
     </row>
@@ -1964,12 +1964,12 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>31,58%</t>
+          <t>31,38%</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>72,96%</t>
+          <t>73,91%</t>
         </is>
       </c>
       <c r="M22" s="2" t="n">
@@ -1985,12 +1985,12 @@
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>31,58%</t>
+          <t>31,38%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>72,96%</t>
+          <t>73,91%</t>
         </is>
       </c>
     </row>
@@ -2033,12 +2033,12 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>27,04%</t>
+          <t>26,09%</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>68,42%</t>
+          <t>68,62%</t>
         </is>
       </c>
       <c r="M23" s="2" t="n">
@@ -2054,12 +2054,12 @@
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>27,04%</t>
+          <t>26,09%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>68,42%</t>
+          <t>68,62%</t>
         </is>
       </c>
     </row>
@@ -2175,7 +2175,7 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>56,1%</t>
+          <t>55,88%</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
@@ -2196,7 +2196,7 @@
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>56,1%</t>
+          <t>55,88%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -2249,7 +2249,7 @@
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>43,9%</t>
+          <t>44,12%</t>
         </is>
       </c>
       <c r="M26" s="2" t="n">
@@ -2270,7 +2270,7 @@
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>43,9%</t>
+          <t>44,12%</t>
         </is>
       </c>
     </row>
@@ -2386,12 +2386,12 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>60,33%</t>
+          <t>60,05%</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>76,15%</t>
+          <t>76,82%</t>
         </is>
       </c>
       <c r="M28" s="2" t="n">
@@ -2407,12 +2407,12 @@
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>60,33%</t>
+          <t>60,05%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
         <is>
-          <t>76,15%</t>
+          <t>76,82%</t>
         </is>
       </c>
     </row>
@@ -2455,12 +2455,12 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>23,85%</t>
+          <t>23,18%</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>39,67%</t>
+          <t>39,95%</t>
         </is>
       </c>
       <c r="M29" s="2" t="n">
@@ -2476,12 +2476,12 @@
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>23,85%</t>
+          <t>23,18%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
         <is>
-          <t>39,67%</t>
+          <t>39,95%</t>
         </is>
       </c>
     </row>
